--- a/boot-file/doc/excel/task-job - 副本.xlsx
+++ b/boot-file/doc/excel/task-job - 副本.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="269">
   <si>
     <t>jobName</t>
   </si>
@@ -129,13 +129,13 @@
     <t>AuditStatusProcessJob</t>
   </si>
   <si>
-    <t>当天洽谈记录未提交修改，审核状态改为“无效</t>
-  </si>
-  <si>
-    <t>0 0/1 * * * ?</t>
-  </si>
-  <si>
-    <t>每日每分钟</t>
+    <t>昨天洽谈记录未提交修改，审核状态改为“无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 41 6 * * ? </t>
+  </si>
+  <si>
+    <t>每日6时40分</t>
   </si>
   <si>
     <t>AutoBackKeepMoneyJob</t>
@@ -727,6 +727,12 @@
   </si>
   <si>
     <t>企业微信同步OA消息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0/5 * * * ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 每5分钟</t>
   </si>
   <si>
     <t>SyncOaUserJob</t>
@@ -872,8 +878,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -903,8 +909,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,9 +924,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,9 +1031,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,96 +1040,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1067,7 +1073,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,109 +1241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,55 +1253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,16 +1267,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1281,26 +1287,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,23 +1324,43 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,10 +1372,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1378,133 +1384,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,7 +1945,7 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A64" sqref="$A64:$XFD64"/>
     </sheetView>
   </sheetViews>
@@ -3164,13 +3170,13 @@
         <v>220</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>219</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="7" t="s">
@@ -3181,19 +3187,19 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E53" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="7" t="s">
@@ -3204,16 +3210,16 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>126</v>
@@ -3229,19 +3235,19 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="E55" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="7" t="s">
@@ -3252,19 +3258,19 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E56" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="7" t="s">
@@ -3275,19 +3281,19 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="7" t="s">
@@ -3298,19 +3304,19 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="E58" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="7" t="s">
@@ -3321,19 +3327,19 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="E59" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="7" t="s">
@@ -3344,19 +3350,19 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="E60" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="7" t="s">
@@ -3367,19 +3373,19 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="E61" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="7" t="s">
@@ -3390,19 +3396,19 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="E62" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="7" t="s">
@@ -3413,42 +3419,42 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E63" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="E64" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="7" t="s">
